--- a/Motherboard Assembly/MBAssemblyTemplate.xlsx
+++ b/Motherboard Assembly/MBAssemblyTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\Motherboard Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C752A1A-2E21-44F2-AE12-8723D0D94BCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D702CF-8CB9-4A5B-882E-BB14DEE72123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Column=Name</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Column=Supplier Subtotal 1</t>
+  </si>
+  <si>
+    <t>Column=Line #</t>
+  </si>
+  <si>
+    <t>Column=Designator</t>
   </si>
 </sst>
 </file>
@@ -436,40 +442,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A74CBD-EB5E-4691-BC08-A422B7428F5D}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
